--- a/forms/Form-2FC.xlsx
+++ b/forms/Form-2FC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F7F8E5-2D85-4FF7-868A-66E2EB00E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD40CFE-B376-4466-9F74-1BABBAF8BAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -132,9 +132,6 @@
     <t>Vessels</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -738,6 +738,40 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -779,41 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,24 +1161,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
@@ -1194,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H4" s="27"/>
     </row>
@@ -1229,15 +1228,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1259,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3"/>
@@ -1348,8 +1347,8 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="64" t="s">
-        <v>36</v>
+      <c r="C19" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="29"/>
@@ -1359,7 +1358,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="11"/>
@@ -1408,11 +1407,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1429,7 +1428,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8vjeRYrLZvPvKkyuZxt0sjOwkU4TXlz1QAuFMCiqrBkTHIULElySUkfuoeRbSmRjQGo8O+uNIeRVUJiAzicAgg==" saltValue="PsTc1I1X6UNBmIL6S+1Oeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fmZnDXzRVcLa+Iy7OcRQeVSSe+eg6Q1s+pE9sbcDgcTllUc7lJqfvVg28U4T+TnydGWkCz90m3ItoxpMrRHflg==" saltValue="G0g1Kp6XBZvUIxdy3qUfJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1499,118 +1498,118 @@
       <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="61" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="61" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73"/>
       <c r="P4" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="53" t="s">
         <v>34</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="67" t="s">
+      <c r="H5" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="59" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2416,7 +2415,7 @@
       <c r="O55" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AlsnHEMJ8J2+qrE4rcF5599balcz+yRuc6s7oZDmzNHBlEenDxUa4MzUmE8WbpmTEWDwQV8VzKEASTQdeXrPLQ==" saltValue="63j7xu00TQdt9kRA77hdiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ji2yvSBo+RaIxgGYu4FZrdmj3fw86/Z8zaUfowqUXxemW5bSPo/8oR5GZ1U2EQbkSx5rljjIqGaVpSL6iMxi8g==" saltValue="yhhDGmtjNOSTwqe+6YiV0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2445,5 +2444,6 @@
     <hyperlink ref="M5" r:id="rId11" location="boatClassTypes" xr:uid="{263265AE-A782-4C7E-A95B-56C7C8AA2144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/forms/Form-2FC.xlsx
+++ b/forms/Form-2FC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD40CFE-B376-4466-9F74-1BABBAF8BAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86CD8D-EDEF-4375-8A4C-34BEA750E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -604,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -627,29 +627,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -660,15 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -813,6 +786,46 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,267 +1174,267 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="64" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="51" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="30"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="30"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="30"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
@@ -1463,21 +1476,21 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="48"/>
-    <col min="10" max="10" width="14.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="48"/>
-    <col min="14" max="14" width="9.140625" style="12"/>
-    <col min="15" max="15" width="9.140625" style="15"/>
-    <col min="16" max="16" width="9.140625" style="13"/>
+    <col min="2" max="2" width="15.7109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="68" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="39"/>
+    <col min="10" max="10" width="14.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="39"/>
+    <col min="14" max="14" width="9.140625" style="71"/>
+    <col min="15" max="15" width="9.140625" style="72"/>
+    <col min="16" max="16" width="9.140625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1495,140 +1508,140 @@
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
-      <c r="P1" s="10"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="71" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="71" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="42" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="21"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -1637,14 +1650,12 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -1653,14 +1664,12 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="8"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -1669,14 +1678,12 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -1685,14 +1692,12 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
@@ -1701,14 +1706,12 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1717,14 +1720,12 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="8"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -1733,14 +1734,12 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1749,14 +1748,12 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="8"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1765,14 +1762,12 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="8"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -1781,641 +1776,561 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="67"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H17" s="67"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="67"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H19" s="67"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H20" s="67"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H21" s="67"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="67"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H23" s="67"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H24" s="67"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="67"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="67"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="37"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="67"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="67"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="37"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H29" s="67"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="37"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="67"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="37"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="67"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="37"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="67"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="37"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H33" s="67"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="37"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H34" s="67"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="8"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H35" s="67"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="37"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H36" s="67"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="37"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H37" s="67"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="37"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H38" s="67"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="37"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H39" s="67"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="37"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H40" s="67"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="37"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H41" s="67"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="37"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H42" s="67"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="37"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H43" s="67"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="37"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H44" s="67"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="37"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H45" s="67"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H46" s="67"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="37"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H47" s="67"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="37"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H48" s="67"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="37"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H49" s="67"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="37"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H50" s="67"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="37"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H51" s="67"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="37"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H52" s="67"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="37"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H53" s="67"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="37"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H54" s="67"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="37"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="8"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ji2yvSBo+RaIxgGYu4FZrdmj3fw86/Z8zaUfowqUXxemW5bSPo/8oR5GZ1U2EQbkSx5rljjIqGaVpSL6iMxi8g==" saltValue="yhhDGmtjNOSTwqe+6YiV0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9TccCobt1mhA5A7anYOAFFIFO5wFcNbA7JLHQ+rHJmx7ta88fNtCfiUY6IgKEBWytkh1WE6cexE1BmXDBtdT/Q==" saltValue="/G5I3UYKBhxLc3hkYJxywA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>

--- a/forms/Form-2FC.xlsx
+++ b/forms/Form-2FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86CD8D-EDEF-4375-8A4C-34BEA750E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634311A-10F0-46C1-95FE-911F074185F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -158,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +216,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -679,10 +698,6 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -717,33 +732,45 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -787,52 +814,52 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1174,24 +1201,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -1241,15 +1268,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1319,7 @@
       <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -1303,7 +1330,7 @@
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1360,7 +1387,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="9"/>
@@ -1371,7 +1398,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="9"/>
@@ -1420,11 +1447,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,21 +1503,21 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="68" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="39"/>
-    <col min="10" max="10" width="14.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="39"/>
-    <col min="14" max="14" width="9.140625" style="71"/>
-    <col min="15" max="15" width="9.140625" style="72"/>
-    <col min="16" max="16" width="9.140625" style="74"/>
+    <col min="2" max="2" width="15.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="38"/>
+    <col min="10" max="10" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="38"/>
+    <col min="14" max="14" width="9.140625" style="49"/>
+    <col min="15" max="15" width="9.140625" style="50"/>
+    <col min="16" max="16" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1511,118 +1538,118 @@
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="62" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="62" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="62" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="68" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1633,15 +1660,15 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="73"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -1650,12 +1677,12 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="37"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -1664,12 +1691,12 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -1678,12 +1705,12 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="37"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -1692,12 +1719,12 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="37"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
@@ -1706,12 +1733,12 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="37"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1720,12 +1747,12 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="37"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -1734,12 +1761,12 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="37"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1748,12 +1775,12 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="37"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1762,12 +1789,12 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -1776,12 +1803,12 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="37"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
@@ -1790,12 +1817,12 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="37"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
@@ -1804,12 +1831,12 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="37"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
@@ -1818,12 +1845,12 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="37"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
@@ -1832,12 +1859,12 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="37"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
@@ -1846,12 +1873,12 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="37"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
@@ -1860,12 +1887,12 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="37"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
@@ -1874,12 +1901,12 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="37"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
@@ -1888,12 +1915,12 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="37"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
@@ -1902,12 +1929,12 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="37"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
@@ -1916,12 +1943,12 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="37"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
@@ -1930,12 +1957,12 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="37"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
@@ -1944,12 +1971,12 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="37"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
@@ -1958,12 +1985,12 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="37"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
@@ -1972,12 +1999,12 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="37"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
@@ -1986,12 +2013,12 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="37"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
@@ -2000,12 +2027,12 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="37"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
@@ -2014,12 +2041,12 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="37"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
@@ -2028,12 +2055,12 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="37"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
@@ -2042,12 +2069,12 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="37"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
@@ -2056,12 +2083,12 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="37"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="36"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
@@ -2070,12 +2097,12 @@
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="37"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
@@ -2084,12 +2111,12 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="37"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
@@ -2098,12 +2125,12 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="37"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="36"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -2112,12 +2139,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="37"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
@@ -2126,12 +2153,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="37"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
@@ -2140,12 +2167,12 @@
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="37"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
@@ -2154,12 +2181,12 @@
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="37"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
@@ -2168,12 +2195,12 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="37"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="36"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
@@ -2182,12 +2209,12 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="37"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -2196,12 +2223,12 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="37"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
@@ -2210,12 +2237,12 @@
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="37"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="36"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
@@ -2224,12 +2251,12 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="37"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
@@ -2238,12 +2265,12 @@
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="37"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="36"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
@@ -2252,12 +2279,12 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="37"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="36"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
@@ -2266,12 +2293,12 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="37"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="36"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
@@ -2280,12 +2307,12 @@
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="37"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
@@ -2294,12 +2321,12 @@
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="37"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
@@ -2308,12 +2335,12 @@
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="37"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
@@ -2322,15 +2349,15 @@
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="37"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9TccCobt1mhA5A7anYOAFFIFO5wFcNbA7JLHQ+rHJmx7ta88fNtCfiUY6IgKEBWytkh1WE6cexE1BmXDBtdT/Q==" saltValue="/G5I3UYKBhxLc3hkYJxywA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c21znZxnLwmDkMHvjc/2rkrfkoUBzToY8wJBaIoxGjd02bUcCQRXso7Py1DTpvE6z1R75lDdMNd/iFgEd4LK1A==" saltValue="lxvsaFN1/X1DyHpU2Asdmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2340,6 +2367,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:P1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:M5 B5:G5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-2FC.xlsx
+++ b/forms/Form-2FC.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634311A-10F0-46C1-95FE-911F074185F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839710B3-A48D-4973-9E7F-A1BD893A6F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -772,6 +772,38 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -812,38 +844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,24 +1201,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -1268,15 +1268,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,11 +1447,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1538,118 +1538,118 @@
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="59"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="63" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="63" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="63" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
       <c r="P4" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="55" t="s">
         <v>29</v>
       </c>
     </row>

--- a/forms/Form-2FC.xlsx
+++ b/forms/Form-2FC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839710B3-A48D-4973-9E7F-A1BD893A6F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3C07C-944B-444C-B0A6-76C46065C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
